--- a/资料/香阁儿/需求整理.xlsx
+++ b/资料/香阁儿/需求整理.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/usr/local/var/www/Project/资料/香阁儿/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Project\资料\香阁儿\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1432,7 +1432,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.研发周期在1~2月，研发费用在10w左右，如果时间上有延迟，研发费用可下调</t>
+    <t>3.研发周期在1~2月。</t>
     <rPh sb="2" eb="3">
       <t>yan'fa</t>
     </rPh>
@@ -1487,8 +1487,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1555,14 +1555,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,6 +1567,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1582,6 +1582,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1852,521 +1855,530 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="33.950000000000003" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="2"/>
-    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="53.1640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="23.1640625" style="2"/>
+    <col min="1" max="1" width="23.125" style="2"/>
+    <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="23.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+    <row r="21" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
+    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
+    <row r="27" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+    <row r="28" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
+    <row r="29" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
+    <row r="30" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
+    <row r="31" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
+    <row r="32" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+    <row r="33" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
+    <row r="34" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
+    <row r="35" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
+    <row r="38" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4" t="s">
+    <row r="40" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4" t="s">
+    <row r="42" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4" t="s">
+    <row r="43" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
+    <row r="45" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
+    <row r="47" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="8" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="A5:A36"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:B35"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="A37:A49"/>
     <mergeCell ref="B50:E50"/>
@@ -2374,21 +2386,12 @@
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B41:C43"/>
     <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:B35"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="A5:A36"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B14:C17"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
